--- a/public/downloads/Template Files/Quotes Converted Report Result.xlsx
+++ b/public/downloads/Template Files/Quotes Converted Report Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DAE310-CA46-4713-A008-F57CA6F9ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFED96A-12D9-4385-AA04-B14E8A1F2202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2770,11 +2770,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2800,16 +2799,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5477,57 +5476,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2022-12-08 00:00:00</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3394</v>
       </c>
@@ -5535,37 +5536,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2022-12-09 00:00:00</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Fischbein</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>454.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>45.45</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>499.95</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2022-09-13 00:00:00</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3273</v>
       </c>
@@ -5573,37 +5574,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2022-09-14 00:00:00</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>BioTrackTHC</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2022-09-05 00:00:00</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3253</v>
       </c>
@@ -5611,37 +5612,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2022-09-06 00:00:00</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Jon Keys</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="I4" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2022-08-18 00:00:00</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3249</v>
       </c>
@@ -5649,37 +5650,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2022-08-19 00:00:00</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Joes Cars</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>25</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I5" s="2" t="str">
+      <c r="I5" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2022-08-11 00:00:00</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3241</v>
       </c>
@@ -5687,37 +5688,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2022-08-12 00:00:00</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Nuts &amp; Screws</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>1.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>16.5</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I6" s="2" t="str">
+      <c r="I6" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2022-06-24 00:00:00</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3223</v>
       </c>
@@ -5725,37 +5726,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2022-06-25 00:00:00</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Fischbein</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>6270</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>627</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>6897</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I7" s="2" t="str">
+      <c r="I7" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2021-08-27 00:00:00</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3171</v>
       </c>
@@ -5763,37 +5764,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2021-08-28 00:00:00</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>matt</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>190.92</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>19.09</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>210.01</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2020-05-11 00:00:00</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3103</v>
       </c>
@@ -5801,37 +5802,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2020-05-12 00:00:00</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Kidman</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>6400</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>640</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>7040</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Quoted</v>
       </c>
-      <c r="I9" s="2" t="str">
+      <c r="I9" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Web User</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2019-09-27 00:00:00</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3014</v>
       </c>
@@ -5839,37 +5840,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2019-09-28 00:00:00</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>818.18</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>81.819999999999993</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>900</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I10" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2019-08-07 00:00:00</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3007</v>
       </c>
@@ -5877,37 +5878,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2019-08-08 00:00:00</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0.2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2019-08-01 00:00:00</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3005</v>
       </c>
@@ -5915,37 +5916,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2019-08-02 00:00:00</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>John Henry</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>0</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I12" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2019-08-01 00:00:00</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>3000</v>
       </c>
@@ -5953,37 +5954,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2019-08-02 00:00:00</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1454.55</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>145.44999999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1600</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="I13" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2018-04-03 00:00:00</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2803</v>
       </c>
@@ -5991,37 +5992,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2018-04-04 00:00:00</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>72.23</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>7.22</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>79.45</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2018-01-19 00:00:00</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2779</v>
       </c>
@@ -6029,37 +6030,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2018-01-20 00:00:00</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC company</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>125</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>12.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>137.5</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I15" s="2" t="str">
+      <c r="I15" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2017-08-18 00:00:00</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2741</v>
       </c>
@@ -6067,37 +6068,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2017-08-19 00:00:00</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Dasch</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1464.86</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>146.49</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1611.35</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="H16" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="I16" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2017-08-17 00:00:00</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2736</v>
       </c>
@@ -6105,37 +6106,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2017-08-18 00:00:00</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC company</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1488.34</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>148.84</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1637.18</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="H17" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="I17" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2016-12-19 00:00:00</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2579</v>
       </c>
@@ -6143,37 +6144,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2016-12-20 00:00:00</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1342.13</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>134.22</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1476.35</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="H18" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="I18" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2016-11-22 00:00:00</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2529</v>
       </c>
@@ -6181,37 +6182,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2016-11-23 00:00:00</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>429.75</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>42.98</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>472.73</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="H19" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="I19" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2016-09-21 00:00:00</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2483</v>
       </c>
@@ -6219,37 +6220,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2016-09-22 00:00:00</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>311.36</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>31.14</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>342.5</v>
       </c>
-      <c r="H20" s="2" t="str">
+      <c r="H20" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="I20" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2016-08-01 00:00:00</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2410</v>
       </c>
@@ -6257,37 +6258,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2016-08-02 00:00:00</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC company</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>130</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>13</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>143</v>
       </c>
-      <c r="H21" s="2" t="str">
+      <c r="H21" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="I21" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-07-21 00:00:00</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2397</v>
       </c>
@@ -6295,37 +6296,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-07-22 00:00:00</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>436.36</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>43.64</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>480</v>
       </c>
-      <c r="H22" s="2" t="str">
+      <c r="H22" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="I22" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-07-20 00:00:00</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2390</v>
       </c>
@@ -6333,37 +6334,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-07-21 00:00:00</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D23" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>54.55</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>5.45</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>60</v>
       </c>
-      <c r="H23" s="2" t="str">
+      <c r="H23" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I23" s="2" t="str">
+      <c r="I23" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-07-02 00:00:00</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2385</v>
       </c>
@@ -6371,37 +6372,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-07-03 00:00:00</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>54.55</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>5.45</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>60</v>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="H24" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I24" s="2" t="str">
+      <c r="I24" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-06-24 00:00:00</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2378</v>
       </c>
@@ -6409,37 +6410,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-06-25 00:00:00</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>145.44999999999999</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>14.55</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>160</v>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="H25" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="I25" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-06-05 00:00:00</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2373</v>
       </c>
@@ -6447,37 +6448,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-06-06 00:00:00</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Dasch</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>81.819999999999993</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>8.18</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>90</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H26" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="I26" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-04-07 00:00:00</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2366</v>
       </c>
@@ -6485,37 +6486,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-04-08 00:00:00</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1301.3499999999999</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>130.13</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1431.48</v>
       </c>
-      <c r="H27" s="2" t="str">
+      <c r="H27" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="I27" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-04-02 00:00:00</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2363</v>
       </c>
@@ -6523,37 +6524,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-04-03 00:00:00</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D28" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>354.55</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>390</v>
       </c>
-      <c r="H28" s="2" t="str">
+      <c r="H28" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="I28" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-03-19 00:00:00</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2331</v>
       </c>
@@ -6561,37 +6562,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-03-20 00:00:00</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC company</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>0</v>
       </c>
-      <c r="H29" s="2" t="str">
+      <c r="H29" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="I29" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-03-19 00:00:00</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2329</v>
       </c>
@@ -6599,37 +6600,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-03-20 00:00:00</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D30" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Ache Co^80</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="str">
+      <c r="H30" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I30" s="2" t="str">
+      <c r="I30" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2015-03-18 00:00:00</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2309</v>
       </c>
@@ -6637,37 +6638,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2015-03-19 00:00:00</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>290.91000000000003</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>29.09</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>320</v>
       </c>
-      <c r="H31" s="2" t="str">
+      <c r="H31" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I31" s="2" t="str">
+      <c r="I31" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2014-11-19 00:00:00</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2229</v>
       </c>
@@ -6675,37 +6676,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2014-11-20 00:00:00</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1301.3499999999999</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>130.13</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1431.48</v>
       </c>
-      <c r="H32" s="2" t="str">
+      <c r="H32" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I32" s="2" t="str">
+      <c r="I32" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2014-09-10 00:00:00</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2212</v>
       </c>
@@ -6713,37 +6714,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2014-09-11 00:00:00</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Dasch</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>81.819999999999993</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>8.18</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>90</v>
       </c>
-      <c r="H33" s="2" t="str">
+      <c r="H33" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I33" s="2" t="str">
+      <c r="I33" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2014-07-25 00:00:00</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2164</v>
       </c>
@@ -6751,37 +6752,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2014-07-26 00:00:00</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D34" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>190.91</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>19.09</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>210</v>
       </c>
-      <c r="H34" s="2" t="str">
+      <c r="H34" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I34" s="2" t="str">
+      <c r="I34" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2014-07-25 00:00:00</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2163</v>
       </c>
@@ -6789,37 +6790,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2014-07-26 00:00:00</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D35" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>190.91</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>19.09</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>210</v>
       </c>
-      <c r="H35" s="2" t="str">
+      <c r="H35" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="I35" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2014-04-04 00:00:00</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2079</v>
       </c>
@@ -6827,37 +6828,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2014-04-05 00:00:00</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Grant Pty Ltd</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>470.45</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>47.05</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>517.5</v>
       </c>
-      <c r="H36" s="2" t="str">
+      <c r="H36" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I36" s="2" t="str">
+      <c r="I36" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-09-04 00:00:00</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2055</v>
       </c>
@@ -6865,37 +6866,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-09-05 00:00:00</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D37" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Dasch</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>3333.2</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>333.32</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>3666.52</v>
       </c>
-      <c r="H37" s="2" t="str">
+      <c r="H37" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I37" s="2" t="str">
+      <c r="I37" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-08-27 00:00:00</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2052</v>
       </c>
@@ -6903,37 +6904,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-08-28 00:00:00</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>22.73</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>2.27</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>25</v>
       </c>
-      <c r="H38" s="2" t="str">
+      <c r="H38" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="I38" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-08-27 00:00:00</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2051</v>
       </c>
@@ -6941,37 +6942,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-08-28 00:00:00</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D39" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>22.73</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>2.27</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>25</v>
       </c>
-      <c r="H39" s="2" t="str">
+      <c r="H39" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I39" s="2" t="str">
+      <c r="I39" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-08-21 00:00:00</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2045</v>
       </c>
@@ -6979,37 +6980,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-08-22 00:00:00</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D40" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets^12542</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>272.73</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>27.27</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>300</v>
       </c>
-      <c r="H40" s="2" t="str">
+      <c r="H40" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I40" s="2" t="str">
+      <c r="I40" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-05-29 00:00:00</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2015</v>
       </c>
@@ -7017,37 +7018,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-05-30 00:00:00</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D41" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>SCT^SCT1101012</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>742.57</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>74.260000000000005</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>816.83</v>
       </c>
-      <c r="H41" s="2" t="str">
+      <c r="H41" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I41" s="2" t="str">
+      <c r="I41" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-05-29 00:00:00</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>2014</v>
       </c>
@@ -7055,37 +7056,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-05-30 00:00:00</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D42" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>SCT^SCT1101012</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>756.05</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>75.61</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>831.66</v>
       </c>
-      <c r="H42" s="2" t="str">
+      <c r="H42" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I42" s="2" t="str">
+      <c r="I42" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-04-09 00:00:00</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1953</v>
       </c>
@@ -7093,37 +7094,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-04-10 00:00:00</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D43" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets^12542</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>9198.1</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>919.8</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>10117.9</v>
       </c>
-      <c r="H43" s="2" t="str">
+      <c r="H43" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I43" s="2" t="str">
+      <c r="I43" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2013-04-09 00:00:00</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1951</v>
       </c>
@@ -7131,37 +7132,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2013-04-10 00:00:00</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D44" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World^123</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>280.87</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>28.08</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>308.95</v>
       </c>
-      <c r="H44" s="2" t="str">
+      <c r="H44" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I44" s="2" t="str">
+      <c r="I44" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-09-18 00:00:00</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1900</v>
       </c>
@@ -7169,37 +7170,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-09-19 00:00:00</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D45" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>145.46</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>14.54</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>160</v>
       </c>
-      <c r="H45" s="2" t="str">
+      <c r="H45" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I45" s="2" t="str">
+      <c r="I45" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-09-12 00:00:00</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1893</v>
       </c>
@@ -7207,37 +7208,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-09-13 00:00:00</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D46" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Cooke</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1792.96</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>179.29</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1972.25</v>
       </c>
-      <c r="H46" s="2" t="str">
+      <c r="H46" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I46" s="2" t="str">
+      <c r="I46" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-09-07 00:00:00</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1879</v>
       </c>
@@ -7245,37 +7246,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-09-08 00:00:00</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Ache Co</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>16.36</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>1.64</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>18</v>
       </c>
-      <c r="H47" s="2" t="str">
+      <c r="H47" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="I47" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-09-07 00:00:00</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1878</v>
       </c>
@@ -7283,37 +7284,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-09-08 00:00:00</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D48" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Ache Co</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>16.36</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>1.64</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>18</v>
       </c>
-      <c r="H48" s="2" t="str">
+      <c r="H48" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I48" s="2" t="str">
+      <c r="I48" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-08-28 00:00:00</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1868</v>
       </c>
@@ -7321,37 +7322,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-08-29 00:00:00</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D49" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World^123</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>181.82</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>18.18</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>200</v>
       </c>
-      <c r="H49" s="2" t="str">
+      <c r="H49" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I49" s="2" t="str">
+      <c r="I49" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Maureen Poppins</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-08-28 00:00:00</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1865</v>
       </c>
@@ -7359,37 +7360,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-08-29 00:00:00</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D50" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World^123</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>90.91</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>9.09</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>100</v>
       </c>
-      <c r="H50" s="2" t="str">
+      <c r="H50" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I50" s="2" t="str">
+      <c r="I50" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Maureen Poppins</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-07-18 00:00:00</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1823</v>
       </c>
@@ -7397,37 +7398,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-07-19 00:00:00</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D51" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>190.91</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>19.09</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>210</v>
       </c>
-      <c r="H51" s="2" t="str">
+      <c r="H51" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I51" s="2" t="str">
+      <c r="I51" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-07-11 00:00:00</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1819</v>
       </c>
@@ -7435,37 +7436,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-07-12 00:00:00</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D52" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>GI Jane</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>436.36</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>43.64</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>480</v>
       </c>
-      <c r="H52" s="2" t="str">
+      <c r="H52" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I52" s="2" t="str">
+      <c r="I52" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-07-11 00:00:00</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1817</v>
       </c>
@@ -7473,37 +7474,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-07-12 00:00:00</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D53" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>19000</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>2470</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>21470</v>
       </c>
-      <c r="H53" s="2" t="str">
+      <c r="H53" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I53" s="2" t="str">
+      <c r="I53" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-07-11 00:00:00</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1816</v>
       </c>
@@ -7511,37 +7512,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-07-12 00:00:00</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D54" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>95</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>12.35</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>107.35</v>
       </c>
-      <c r="H54" s="2" t="str">
+      <c r="H54" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I54" s="2" t="str">
+      <c r="I54" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-06-28 00:00:00</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1809</v>
       </c>
@@ -7549,37 +7550,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-06-29 00:00:00</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D55" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>190.91</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>19.09</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>210</v>
       </c>
-      <c r="H55" s="2" t="str">
+      <c r="H55" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="I55" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-02-27 00:00:00</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1765</v>
       </c>
@@ -7587,37 +7588,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-02-28 00:00:00</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D56" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Big Burtha</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>712.5</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>71.25</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>783.75</v>
       </c>
-      <c r="H56" s="2" t="str">
+      <c r="H56" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="I56" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2012-02-10 00:00:00</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1746</v>
       </c>
@@ -7625,37 +7626,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2012-02-11 00:00:00</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D57" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>120</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>12</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>132</v>
       </c>
-      <c r="H57" s="2" t="str">
+      <c r="H57" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="I57" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-11-18 00:00:00</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1730</v>
       </c>
@@ -7663,37 +7664,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-11-19 00:00:00</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D58" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1425</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>142.5</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1567.5</v>
       </c>
-      <c r="H58" s="2" t="str">
+      <c r="H58" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I58" s="2" t="str">
+      <c r="I58" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-11-18 00:00:00</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1729</v>
       </c>
@@ -7701,37 +7702,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-11-19 00:00:00</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D59" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Dasch</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1425</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>142.5</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1567.5</v>
       </c>
-      <c r="H59" s="2" t="str">
+      <c r="H59" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I59" s="2" t="str">
+      <c r="I59" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-10-20 00:00:00</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1710</v>
       </c>
@@ -7739,37 +7740,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-10-21 00:00:00</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D60" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Bruce Willis</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>150</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>150</v>
       </c>
-      <c r="H60" s="2" t="str">
+      <c r="H60" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I60" s="2" t="str">
+      <c r="I60" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-10-20 00:00:00</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1709</v>
       </c>
@@ -7777,37 +7778,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-10-21 00:00:00</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D61" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>135</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>135</v>
       </c>
-      <c r="H61" s="2" t="str">
+      <c r="H61" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I61" s="2" t="str">
+      <c r="I61" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-09-07 00:00:00</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1679</v>
       </c>
@@ -7815,37 +7816,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-09-08 00:00:00</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D62" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>270</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>27</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>297</v>
       </c>
-      <c r="H62" s="2" t="str">
+      <c r="H62" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I62" s="2" t="str">
+      <c r="I62" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-09-02 00:00:00</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1666</v>
       </c>
@@ -7853,37 +7854,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-09-03 00:00:00</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D63" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>4X4 World</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>361.36</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>6.14</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>367.5</v>
       </c>
-      <c r="H63" s="2" t="str">
+      <c r="H63" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I63" s="2" t="str">
+      <c r="I63" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1661</v>
       </c>
@@ -7891,37 +7892,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-24 00:00:00</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D64" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H64" s="2" t="str">
+      <c r="H64" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I64" s="2" t="str">
+      <c r="I64" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1660</v>
       </c>
@@ -7929,37 +7930,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-24 00:00:00</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D65" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H65" s="2" t="str">
+      <c r="H65" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I65" s="2" t="str">
+      <c r="I65" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1655</v>
       </c>
@@ -7967,37 +7968,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-23 00:00:00</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D66" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H66" s="2" t="str">
+      <c r="H66" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I66" s="2" t="str">
+      <c r="I66" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1649</v>
       </c>
@@ -8005,37 +8006,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-20 00:00:00</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D67" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H67" s="2" t="str">
+      <c r="H67" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I67" s="2" t="str">
+      <c r="I67" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1648</v>
       </c>
@@ -8043,37 +8044,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-20 00:00:00</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D68" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H68" s="2" t="str">
+      <c r="H68" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I68" s="2" t="str">
+      <c r="I68" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1647</v>
       </c>
@@ -8081,37 +8082,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-20 00:00:00</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D69" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H69" s="2" t="str">
+      <c r="H69" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I69" s="2" t="str">
+      <c r="I69" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1646</v>
       </c>
@@ -8119,37 +8120,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-20 00:00:00</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D70" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H70" s="2" t="str">
+      <c r="H70" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I70" s="2" t="str">
+      <c r="I70" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1645</v>
       </c>
@@ -8157,37 +8158,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-20 00:00:00</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D71" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H71" s="2" t="str">
+      <c r="H71" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I71" s="2" t="str">
+      <c r="I71" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-08-10 00:00:00</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1628</v>
       </c>
@@ -8195,37 +8196,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-11 00:00:00</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D72" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Jones</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>109.09</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>10.91</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>120</v>
       </c>
-      <c r="H72" s="2" t="str">
+      <c r="H72" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I72" s="2" t="str">
+      <c r="I72" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-08-08 00:00:00</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1625</v>
       </c>
@@ -8233,37 +8234,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-09 00:00:00</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D73" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Jones^Bathroom</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>4856.82</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>418.18</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>5275</v>
       </c>
-      <c r="H73" s="2" t="str">
+      <c r="H73" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I73" s="2" t="str">
+      <c r="I73" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-08-08 00:00:00</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1619</v>
       </c>
@@ -8271,37 +8272,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-08-09 00:00:00</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D74" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Ache Co^80</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>181.82</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>18.18</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>200</v>
       </c>
-      <c r="H74" s="2" t="str">
+      <c r="H74" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I74" s="2" t="str">
+      <c r="I74" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-07-14 00:00:00</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1595</v>
       </c>
@@ -8309,37 +8310,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-07-15 00:00:00</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Matt 3</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>50</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>5</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>55</v>
       </c>
-      <c r="H75" s="2" t="str">
+      <c r="H75" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I75" s="2" t="str">
+      <c r="I75" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2011-06-09 00:00:00</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1578</v>
       </c>
@@ -8347,37 +8348,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2011-06-10 00:00:00</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D76" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Go 4 Gold Enterprises</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>540</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>540</v>
       </c>
-      <c r="H76" s="2" t="str">
+      <c r="H76" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I76" s="2" t="str">
+      <c r="I76" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2010-07-20 00:00:00</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1199</v>
       </c>
@@ -8385,37 +8386,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-07-21 00:00:00</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D77" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Ache Co</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>0</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>0</v>
       </c>
-      <c r="H77" s="2" t="str">
+      <c r="H77" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I77" s="2" t="str">
+      <c r="I77" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2010-06-16 00:00:00</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1132</v>
       </c>
@@ -8423,37 +8424,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-06-17 00:00:00</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D78" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>500</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>50</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>550</v>
       </c>
-      <c r="H78" s="2" t="str">
+      <c r="H78" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I78" s="2" t="str">
+      <c r="I78" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2010-05-10 00:00:00</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1058</v>
       </c>
@@ -8461,37 +8462,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-05-10 00:00:00</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D79" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>215.91</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>21.59</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>237.5</v>
       </c>
-      <c r="H79" s="2" t="str">
+      <c r="H79" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I79" s="2" t="str">
+      <c r="I79" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2010-03-30 00:00:00</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>1017</v>
       </c>
@@ -8499,37 +8500,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-03-31 00:00:00</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D80" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Cooke</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>550</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>55</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>605</v>
       </c>
-      <c r="H80" s="2" t="str">
+      <c r="H80" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I80" s="2" t="str">
+      <c r="I80" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2010-01-15 00:00:00</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>932</v>
       </c>
@@ -8537,37 +8538,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-01-16 00:00:00</v>
       </c>
-      <c r="D81" s="2" t="str">
+      <c r="D81" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>380</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>38</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>418</v>
       </c>
-      <c r="H81" s="2" t="str">
+      <c r="H81" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I81" s="2" t="str">
+      <c r="I81" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2010-01-08 00:00:00</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>911</v>
       </c>
@@ -8575,37 +8576,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-01-09 00:00:00</v>
       </c>
-      <c r="D82" s="2" t="str">
+      <c r="D82" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>107.95</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>10.8</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>118.75</v>
       </c>
-      <c r="H82" s="2" t="str">
+      <c r="H82" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I82" s="2" t="str">
+      <c r="I82" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-12-02 00:00:00</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>837</v>
       </c>
@@ -8613,37 +8614,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-12-03 00:00:00</v>
       </c>
-      <c r="D83" s="2" t="str">
+      <c r="D83" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>95</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>9.5</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>104.5</v>
       </c>
-      <c r="H83" s="2" t="str">
+      <c r="H83" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I83" s="2" t="str">
+      <c r="I83" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-12-02 00:00:00</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>831</v>
       </c>
@@ -8651,37 +8652,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-12-03 00:00:00</v>
       </c>
-      <c r="D84" s="2" t="str">
+      <c r="D84" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>95</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>9.5</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>104.5</v>
       </c>
-      <c r="H84" s="2" t="str">
+      <c r="H84" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I84" s="2" t="str">
+      <c r="I84" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-12-02 00:00:00</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>827</v>
       </c>
@@ -8689,37 +8690,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-12-03 00:00:00</v>
       </c>
-      <c r="D85" s="2" t="str">
+      <c r="D85" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>20.45</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>22.5</v>
       </c>
-      <c r="H85" s="2" t="str">
+      <c r="H85" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I85" s="2" t="str">
+      <c r="I85" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-12-01 00:00:00</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>825</v>
       </c>
@@ -8727,37 +8728,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-12-02 00:00:00</v>
       </c>
-      <c r="D86" s="2" t="str">
+      <c r="D86" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>386.11</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>38.61</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>424.72</v>
       </c>
-      <c r="H86" s="2" t="str">
+      <c r="H86" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I86" s="2" t="str">
+      <c r="I86" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-11-10 00:00:00</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>746</v>
       </c>
@@ -8765,37 +8766,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-11-11 00:00:00</v>
       </c>
-      <c r="D87" s="2" t="str">
+      <c r="D87" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Van Den Berg</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>463</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>46.3</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>509.3</v>
       </c>
-      <c r="H87" s="2" t="str">
+      <c r="H87" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I87" s="2" t="str">
+      <c r="I87" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-11-10 00:00:00</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>740</v>
       </c>
@@ -8803,37 +8804,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-11-11 00:00:00</v>
       </c>
-      <c r="D88" s="2" t="str">
+      <c r="D88" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>463</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>46.3</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>509.3</v>
       </c>
-      <c r="H88" s="2" t="str">
+      <c r="H88" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I88" s="2" t="str">
+      <c r="I88" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-11-10 00:00:00</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>738</v>
       </c>
@@ -8841,37 +8842,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-11-11 00:00:00</v>
       </c>
-      <c r="D89" s="2" t="str">
+      <c r="D89" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>3.64</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0.36</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>4</v>
       </c>
-      <c r="H89" s="2" t="str">
+      <c r="H89" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I89" s="2" t="str">
+      <c r="I89" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-11-05 00:00:00</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>734</v>
       </c>
@@ -8879,37 +8880,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-11-06 00:00:00</v>
       </c>
-      <c r="D90" s="2" t="str">
+      <c r="D90" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Cash Customer</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>265.68</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>26.57</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>292.25</v>
       </c>
-      <c r="H90" s="2" t="str">
+      <c r="H90" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I90" s="2" t="str">
+      <c r="I90" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-10-14 00:00:00</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>636</v>
       </c>
@@ -8917,37 +8918,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-10-15 00:00:00</v>
       </c>
-      <c r="D91" s="2" t="str">
+      <c r="D91" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Big Burtha</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>550</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>55</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>605</v>
       </c>
-      <c r="H91" s="2" t="str">
+      <c r="H91" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I91" s="2" t="str">
+      <c r="I91" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-10-14 00:00:00</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>627</v>
       </c>
@@ -8955,37 +8956,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-10-15 00:00:00</v>
       </c>
-      <c r="D92" s="2" t="str">
+      <c r="D92" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Jones^Garage</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30.3</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3.03</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33.33</v>
       </c>
-      <c r="H92" s="2" t="str">
+      <c r="H92" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I92" s="2" t="str">
+      <c r="I92" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-10-13 00:00:00</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>612</v>
       </c>
@@ -8993,37 +8994,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-10-14 00:00:00</v>
       </c>
-      <c r="D93" s="2" t="str">
+      <c r="D93" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>3.72</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>0.37</v>
       </c>
-      <c r="G93" s="4">
+      <c r="G93" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>4.09</v>
       </c>
-      <c r="H93" s="2" t="str">
+      <c r="H93" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I93" s="2" t="str">
+      <c r="I93" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-10-09 00:00:00</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>592</v>
       </c>
@@ -9031,37 +9032,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-10-10 00:00:00</v>
       </c>
-      <c r="D94" s="2" t="str">
+      <c r="D94" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>539.77</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>53.98</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>593.75</v>
       </c>
-      <c r="H94" s="2" t="str">
+      <c r="H94" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I94" s="2" t="str">
+      <c r="I94" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-10-06 00:00:00</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>572</v>
       </c>
@@ -9069,37 +9070,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-10-07 00:00:00</v>
       </c>
-      <c r="D95" s="2" t="str">
+      <c r="D95" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1079.55</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>107.95</v>
       </c>
-      <c r="G95" s="4">
+      <c r="G95" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1187.5</v>
       </c>
-      <c r="H95" s="2" t="str">
+      <c r="H95" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I95" s="2" t="str">
+      <c r="I95" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>529</v>
       </c>
@@ -9107,37 +9108,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-09-10 00:00:00</v>
       </c>
-      <c r="D96" s="2" t="str">
+      <c r="D96" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>90.91</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>9.09</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>100</v>
       </c>
-      <c r="H96" s="2" t="str">
+      <c r="H96" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I96" s="2" t="str">
+      <c r="I96" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>528</v>
       </c>
@@ -9145,37 +9146,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2010-09-10 00:00:00</v>
       </c>
-      <c r="D97" s="2" t="str">
+      <c r="D97" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>172.73</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>17.27</v>
       </c>
-      <c r="G97" s="4">
+      <c r="G97" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>190</v>
       </c>
-      <c r="H97" s="2" t="str">
+      <c r="H97" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I97" s="2" t="str">
+      <c r="I97" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2009-01-22 00:00:00</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>387</v>
       </c>
@@ -9183,37 +9184,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2009-01-23 00:00:00</v>
       </c>
-      <c r="D98" s="2" t="str">
+      <c r="D98" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Big Burtha</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1025.45</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>102.55</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>1128</v>
       </c>
-      <c r="H98" s="2" t="str">
+      <c r="H98" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I98" s="2" t="str">
+      <c r="I98" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Rod Farrell</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-10-16 00:00:00</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>123</v>
       </c>
@@ -9221,37 +9222,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-10-17 00:00:00</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D99" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Dasch</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>40.909999999999997</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>4.09</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>45</v>
       </c>
-      <c r="H99" s="2" t="str">
+      <c r="H99" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I99" s="2" t="str">
+      <c r="I99" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-10-14 00:00:00</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>116</v>
       </c>
@@ -9259,37 +9260,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-10-15 00:00:00</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D100" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>45.45</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>4.55</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>50</v>
       </c>
-      <c r="H100" s="2" t="str">
+      <c r="H100" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Good</v>
       </c>
-      <c r="I100" s="2" t="str">
+      <c r="I100" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Maureen Poppins</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-10-03 00:00:00</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>50</v>
       </c>
@@ -9297,37 +9298,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-10-04 00:00:00</v>
       </c>
-      <c r="D101" s="2" t="str">
+      <c r="D101" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>256.82</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>25.68</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G101" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>282.5</v>
       </c>
-      <c r="H101" s="2" t="str">
+      <c r="H101" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>80%</v>
       </c>
-      <c r="I101" s="2" t="str">
+      <c r="I101" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-09-23 00:00:00</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>41</v>
       </c>
@@ -9335,37 +9336,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-09-23 00:00:00</v>
       </c>
-      <c r="D102" s="2" t="str">
+      <c r="D102" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Van Den Berg</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>1818.18</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>181.82</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>2000</v>
       </c>
-      <c r="H102" s="2" t="str">
+      <c r="H102" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I102" s="2" t="str">
+      <c r="I102" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-09-23 00:00:00</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>36</v>
       </c>
@@ -9373,37 +9374,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-09-23 00:00:00</v>
       </c>
-      <c r="D103" s="2" t="str">
+      <c r="D103" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Voss</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>727.27</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>72.73</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>800</v>
       </c>
-      <c r="H103" s="2" t="str">
+      <c r="H103" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I103" s="2" t="str">
+      <c r="I103" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-09-23 00:00:00</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>35</v>
       </c>
@@ -9411,37 +9412,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-09-24 00:00:00</v>
       </c>
-      <c r="D104" s="2" t="str">
+      <c r="D104" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Burns</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>181.82</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>18.18</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>200</v>
       </c>
-      <c r="H104" s="2" t="str">
+      <c r="H104" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v/>
       </c>
-      <c r="I104" s="2" t="str">
+      <c r="I104" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-09-22 00:00:00</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>32</v>
       </c>
@@ -9449,37 +9450,37 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-09-23 00:00:00</v>
       </c>
-      <c r="D105" s="2" t="str">
+      <c r="D105" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>150</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>15</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G105" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>165</v>
       </c>
-      <c r="H105" s="2" t="str">
+      <c r="H105" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>80%</v>
       </c>
-      <c r="I105" s="2" t="str">
+      <c r="I105" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleDate]]</f>
         <v>2008-08-22 00:00:00</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="4">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.SaleID]]</f>
         <v>14</v>
       </c>
@@ -9487,842 +9488,842 @@
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.DueDate]]</f>
         <v>2008-08-23 00:00:00</v>
       </c>
-      <c r="D106" s="2" t="str">
+      <c r="D106" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.CustomerName]]</f>
         <v>Mr Smith</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmount]]</f>
         <v>30</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalTax]]</f>
         <v>3</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="5">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.TotalAmountInc]]</f>
         <v>33</v>
       </c>
-      <c r="H106" s="2" t="str">
+      <c r="H106" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.QuoteStatus]]</f>
         <v>Call Back</v>
       </c>
-      <c r="I106" s="2" t="str">
+      <c r="I106" s="4" t="str">
         <f>TQuoteList_IgnoreDates_true_OrderBy_SaleID_20desc_Search_Deleted_20__3D_20true_2[[#This Row],[T.EmployeeName]]</f>
         <v>John Citizen</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="C205" s="3"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="C207" s="3"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="C209" s="3"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="C210" s="3"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="C212" s="3"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="C213" s="3"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="C214" s="3"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="C220" s="3"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="C221" s="3"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="C222" s="3"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
